--- a/homework/98.xlsx
+++ b/homework/98.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362AA0E2-DEDC-463B-AA1F-E42C35298044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B837C4-529A-4A6F-9D06-AD95F0EC2B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="2025" windowWidth="15330" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="3315" windowWidth="15330" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,176 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>I went to the window and looked out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I wanted to phone you, but I didn't have your number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I jumped into the river and swam to the other side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I usually drive to work,but i went by bus this morning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>do you want me to come with you</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(,) Or shall I wait here?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>because it was raining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>but they weren't enter because the museum closed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(but it was closed)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>so he waited 20 minutes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(so he didn't eat anything)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>because it(the traffic) was trafficking(bad)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,so she was apology later</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Goodbye,</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drove car</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(got into her car) and went(drove) away</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I met a new friend ,but I think he don't enough cute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I went home and played game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I didn't get her reply, so I'm angry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I went to sleep quickly because I was tired</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,13 +215,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,13 +251,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -420,7 +605,7 @@
   <dimension ref="A3:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A3" sqref="A3:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -433,14 +618,161 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>97.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="1">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.15">
